--- a/data/dataframe_ids.xlsx
+++ b/data/dataframe_ids.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,7 +390,439 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1877220</v>
+        <v>1859530</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1859540</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1859550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1859590</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1859600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>1859610</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>1859630</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>1859640</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>1859650</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>1858670</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>1858700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>1858710</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>1858740</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>1858760</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>1858770</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>1858780</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>1858810</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>1858860</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>1858870</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>1858900</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>1858910</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>1858920</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>1858940</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>1858970</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>1858980</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>1859010</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>1859020</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>1859030</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>1859040</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>1859060</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>1859100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>1859110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>1859140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>1858210</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>1858240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>1858260</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>1858270</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>1858300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>1858301</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>1858303</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>1858305</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>1858400</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>1858410</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>1858450</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>1858460</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>1858490</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>1858530</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>1858550</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>1858560</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>1858570</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>1858580</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>1858600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>1858610</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>1858620</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>1858650</v>
       </c>
     </row>
   </sheetData>
